--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28095" windowHeight="14160" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>{'keywords':'克拉霉素'}</t>
-  </si>
-  <si>
-    <t>{'keywords':'感冒灵'}</t>
   </si>
   <si>
     <t>{'keywords':''}</t>
@@ -148,8 +145,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,14 +170,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -189,24 +231,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,44 +284,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,43 +305,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -318,55 +315,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,37 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,85 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,11 +509,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,46 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,10 +614,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,16 +626,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,115 +644,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="43.75" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
@@ -1203,14 +1200,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1219,27 +1219,7 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1247,7 +1227,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/" tooltip="http://192.168.2.252:18080/4000/4000/0/"/>
     <hyperlink ref="B3" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/" tooltip="http://192.168.2.252:18080/4000/4000/0/"/>
-    <hyperlink ref="B5" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/" tooltip="http://192.168.2.252:18080/4000/4000/0/"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://192.168.2.252:18080/4000/4000/0/" tooltip="http://192.168.2.252:18080/4000/4000/0/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1306,10 +1286,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -1334,7 +1314,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1373,10 +1353,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1413,10 +1393,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1439,10 +1419,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1465,8 +1445,8 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1481,10 +1461,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1507,10 +1487,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
